--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="B2:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,11 +702,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F12" s="7">
-        <v>0.67708333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
+        <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="10">
         <f>SUM(G7:G45)</f>
-        <v>0.38541666666666663</v>
+        <v>0.41666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA38CD8E-55DD-4AF7-B4AA-260F9CD62C01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>Stunden</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Art</t>
   </si>
@@ -72,13 +70,22 @@
   </si>
   <si>
     <t>Änderung der Ordnerstruktur, der Zeitaufzeichnung und des Projekttagebuchs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunden </t>
+  </si>
+  <si>
+    <t>Zeit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +133,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -150,10 +164,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -176,8 +191,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -216,17 +236,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle3567" displayName="Tabelle3567" ref="B6:G46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:G46"/>
-  <tableColumns count="6">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Stunden" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit" dataDxfId="0">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="1" xr3:uid="{1FBCB0CE-0361-48D9-890B-1878783846FE}" name="Stunden "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -528,11 +549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,49 +567,52 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="11">
         <v>43171</v>
@@ -603,13 +627,16 @@
         <f t="shared" ref="G7:G45" si="0">F7-E7</f>
         <v>4.166666666666663E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="11">
         <v>43171</v>
@@ -624,13 +651,16 @@
         <f t="shared" si="0"/>
         <v>7.291666666666663E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="12">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
       <c r="D9" s="11">
         <v>43177</v>
@@ -645,13 +675,16 @@
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="12">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="11">
         <v>43178</v>
@@ -666,13 +699,16 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="11">
         <v>43179</v>
@@ -687,13 +723,16 @@
         <f t="shared" si="0"/>
         <v>0.11458333333333337</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="12">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="11">
         <v>43198</v>
@@ -708,8 +747,11 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666741E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="12">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -718,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -727,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -736,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -889,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -898,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -907,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -916,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -925,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -934,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -943,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -952,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -961,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -970,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -979,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -988,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -997,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1006,17 +1048,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="10">
-        <f>SUM(G7:G45)</f>
-        <v>0.41666666666666663</v>
+      <c r="G46" s="10"/>
+      <c r="H46" s="13">
+        <f>SUM(H7:H45)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA38CD8E-55DD-4AF7-B4AA-260F9CD62C01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Art</t>
   </si>
@@ -63,9 +62,6 @@
     <t>Einrichtung von Github, Anlegen der Ordnerstruktur und der Zeiterfassung</t>
   </si>
   <si>
-    <t>Besprechung Organisation, Funktionen &amp; Funktionsbereiche</t>
-  </si>
-  <si>
     <t>Erstellung des Projekttagebuchs, Review aller bisher erstellten Dokumente</t>
   </si>
   <si>
@@ -76,14 +72,26 @@
   </si>
   <si>
     <t>Zeit</t>
+  </si>
+  <si>
+    <t>Programmierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umsetzung der Funktionen für Release 1 </t>
+  </si>
+  <si>
+    <t>Besprechung Organisation, Funktionen und Funktionsbereiche</t>
+  </si>
+  <si>
+    <t>Änderung an der Struktur des Projekttagebuchs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -166,7 +174,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -192,7 +200,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -236,18 +244,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H46"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit" dataDxfId="0">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="6" name="Zeit" dataDxfId="0">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{1FBCB0CE-0361-48D9-890B-1878783846FE}" name="Stunden "/>
+    <tableColumn id="1" name="Stunden "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,10 +609,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -684,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11">
         <v>43178</v>
@@ -708,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11">
         <v>43179</v>
@@ -732,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="11">
         <v>43198</v>
@@ -752,25 +760,62 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43200</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.75</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43201</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.625</v>
+      </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="11">
+        <v>43201</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
@@ -1059,12 +1104,15 @@
       <c r="G46" s="10"/>
       <c r="H46" s="13">
         <f>SUM(H7:H45)</f>
-        <v>10</v>
+        <v>13.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G13" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D23D89-4C33-423E-BF94-C2726122C5EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,9 +90,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -174,7 +175,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -200,7 +201,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -244,18 +245,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:H46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Zeit" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit" dataDxfId="0">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Stunden "/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Stunden "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D23D89-4C33-423E-BF94-C2726122C5EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,9 +89,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -175,7 +174,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -201,7 +200,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -245,18 +244,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H46"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit" dataDxfId="0">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="6" name="Zeit" dataDxfId="0">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Stunden "/>
+    <tableColumn id="1" name="Stunden "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,11 +816,18 @@
       <c r="D15" s="11">
         <v>43201</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -1105,7 +1111,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="13">
         <f>SUM(H7:H45)</f>
-        <v>13.25</v>
+        <v>14.25</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A148EFE8-B92A-48FF-8C59-3D1562076534}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Art</t>
   </si>
@@ -84,14 +85,32 @@
   </si>
   <si>
     <t>Änderung an der Struktur des Projekttagebuchs</t>
+  </si>
+  <si>
+    <t>KW11</t>
+  </si>
+  <si>
+    <t>KW12</t>
+  </si>
+  <si>
+    <t>KW13</t>
+  </si>
+  <si>
+    <t>KW14</t>
+  </si>
+  <si>
+    <t>KW15</t>
+  </si>
+  <si>
+    <t>Gruppen Meeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -163,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,12 +190,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,7 +239,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -244,18 +307,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:H46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H47" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H47" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Zeit" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit" dataDxfId="0">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Stunden "/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Stunden "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,11 +620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,24 +638,24 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -632,62 +695,68 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" ref="G7:G45" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G46" si="0">F7-E7</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="H7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="14">
         <v>43171</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="15">
         <v>0.65625</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="15">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>7.291666666666663E-2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="16">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="18">
         <v>43177</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="19">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="20">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -710,79 +779,84 @@
       <c r="H10" s="12">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="18">
         <v>43179</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="19">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="19">
         <v>0.90625</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="20">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="19">
+        <f>F12-E12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="18">
         <v>43198</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="19">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="19">
         <f t="shared" si="0"/>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="20">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11">
-        <v>43200</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="H13">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -790,65 +864,96 @@
         <v>17</v>
       </c>
       <c r="D14" s="11">
-        <v>43201</v>
+        <v>43200</v>
       </c>
       <c r="E14" s="7">
-        <v>0.5625</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="F14" s="7">
-        <v>0.625</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="H14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.75</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11">
         <v>43201</v>
       </c>
       <c r="E15" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="F15" s="7">
         <v>0.625</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="11">
+        <v>43201</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43202</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -857,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -866,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -875,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -884,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -893,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -902,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -911,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -920,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -929,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -938,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -947,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -956,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -965,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -974,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1101,24 +1206,33 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="13">
-        <f>SUM(H7:H45)</f>
-        <v>14.25</v>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="13">
+        <f>SUM(H7:H46)</f>
+        <v>16.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G13" calculatedColumn="1"/>
+    <ignoredError sqref="G14" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A148EFE8-B92A-48FF-8C59-3D1562076534}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2672DDEC-D336-4316-AEFC-CC75D871FCD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Art</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Gruppen Meeting</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Grundfunktionen: Sollzeit/Istzeiterfassung</t>
+  </si>
+  <si>
+    <t>Ausarbeitung Grundfunktionen</t>
   </si>
 </sst>
 </file>
@@ -623,39 +629,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -705,7 +711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -730,7 +736,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
@@ -756,7 +762,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -783,7 +789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
@@ -809,7 +815,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
@@ -827,7 +833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="21" t="s">
         <v>10</v>
@@ -856,7 +862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -882,7 +888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -906,7 +912,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -930,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -953,16 +959,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="11">
+        <v>43205</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -971,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -980,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -989,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -998,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1007,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1016,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1025,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1034,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1043,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1052,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1061,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1070,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1079,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1088,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1097,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1106,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1115,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1124,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1133,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1142,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1151,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1160,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1169,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1178,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1187,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1196,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1205,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -1214,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1246,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="13">
         <f>SUM(H7:H46)</f>
-        <v>16.25</v>
+        <v>19.25</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2672DDEC-D336-4316-AEFC-CC75D871FCD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Art</t>
   </si>
@@ -108,15 +107,18 @@
     <t>Ausarbeitung der Grundfunktionen: Sollzeit/Istzeiterfassung</t>
   </si>
   <si>
-    <t>Ausarbeitung Grundfunktionen</t>
+    <t>Erstellung einer Ssystemdokumentation</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -174,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,9 +227,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,9 +253,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,19 +270,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
@@ -313,18 +331,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H47" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:H47" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H47" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H47"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit" dataDxfId="0">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="6" name="Zeit" dataDxfId="1">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Stunden "/>
+    <tableColumn id="1" name="Stunden " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -626,42 +644,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="81.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,11 +699,11 @@
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -711,58 +730,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>43171</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0.65625</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>7.291666666666663E-2</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>1.75</v>
       </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>43177</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>1.25</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -789,80 +808,80 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>43179</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>0.90625</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <f t="shared" si="0"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>2.75</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="19">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27">
         <f>F12-E12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
+      <c r="H12" s="28">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="21" t="s">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>43198</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <f t="shared" si="0"/>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>1.75</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -881,14 +900,14 @@
       <c r="G14" s="7">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="12">
         <v>1.75</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -908,13 +927,13 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -932,11 +951,11 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -955,13 +974,13 @@
       <c r="G17" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -979,29 +998,59 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43206</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="H20" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1010,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1019,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1028,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1037,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1046,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1055,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1064,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1073,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1082,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1091,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1100,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1109,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1118,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1127,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1136,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1145,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1154,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1163,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1172,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1181,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1190,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1199,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1208,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1217,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1226,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -1235,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>5</v>
       </c>
@@ -1244,16 +1293,16 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="13">
+      <c r="H47" s="23">
         <f>SUM(H7:H46)</f>
-        <v>19.25</v>
+        <v>23.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G14" calculatedColumn="1"/>
+    <ignoredError sqref="G14 G17" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1131AE9-01A5-4B9C-BE2C-02A0BBE5DC66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Art</t>
   </si>
@@ -111,14 +112,17 @@
   </si>
   <si>
     <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>KW16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -227,9 +231,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,6 +291,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -331,18 +336,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H47" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3567" displayName="Tabelle3567" ref="B6:H47" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H47" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Zeit" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit" dataDxfId="1">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Stunden " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Stunden " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -644,11 +649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +859,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" t="s">
+      <c r="B13" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -955,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -978,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1002,31 +1007,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="17">
         <v>43206</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="18">
         <v>0.5</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="18">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1049,8 +1056,11 @@
       <c r="H20" s="12">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1059,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1068,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1077,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1086,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1095,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1104,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1113,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1122,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1131,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1140,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1149,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Teuchtmann.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1131AE9-01A5-4B9C-BE2C-02A0BBE5DC66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22992057-AC94-4CE9-8E4E-64221A51E296}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
